--- a/dataset/NPASS_NPs.xlsx
+++ b/dataset/NPASS_NPs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\LAIDD_SMW\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD5DB47-25F6-4446-A8C8-8DFD6762E06A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0A0270-7A77-416E-9A4B-8C26D3360D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="15075" windowHeight="8610" xr2:uid="{B3A182F8-30EF-411F-A7A8-B1066FC8D451}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="15075" windowHeight="8610" xr2:uid="{B3A182F8-30EF-411F-A7A8-B1066FC8D451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <t>NPC125828</t>
   </si>
   <si>
-    <t>CC(C1CCC2(C1(CC=C3C2CCC4C(=C3)CCC(C4(C)C)N(C)C)C)C)N©</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hesperetin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>C1=CC2=C(C(=C1)O)N=CC=C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC(C1CCC2(C1(CC=C3C2CCC4C(=C3)CCC(C4(C)C)N(C)C)C)C)N(C)C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4646C37B-E9D1-42BB-A6DC-ABCC58D37A7D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -575,7 +577,7 @@
         <v>5468622</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -583,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>72281</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -603,19 +605,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>1923</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
